--- a/test/extref.xlsx
+++ b/test/extref.xlsx
@@ -4,18 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="foo" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="bar" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>text</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,12 +80,44 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val=""/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
       <sheetName val="bar"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="bar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="bar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -379,15 +422,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D7:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f>[1]bar!$A$1</f>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="e">
+        <f>+[1]bar!$C$7</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="e">
+        <f>+[2]bar!$C$8</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="e">
+        <f>+[3]bar!$C$9</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -398,12 +455,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>SUM(A1:A3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/extref.xlsx
+++ b/test/extref.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="foo" sheetId="2" r:id="rId2"/>
     <sheet name="bar" sheetId="3" r:id="rId3"/>
+    <sheet name="O'Brien's Sales" sheetId="4" r:id="rId4"/>
+    <sheet name="O'Brien's" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
@@ -115,6 +119,38 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="bar"/>
+      <sheetName val="source |'!@#$%^&amp;()_-=+"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="bar"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="O'Brien's"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -425,7 +461,7 @@
   <dimension ref="D7:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -492,4 +528,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>SUM(A1:A3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="e">
+        <f>[4]bar!A1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="e">
+        <f>'[5]O''Brien''s'!A1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/extref.xlsx
+++ b/test/extref.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -19,8 +19,9 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -76,6 +77,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -154,6 +158,25 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="areaBelow50_ordered"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="Z28">
+            <v>0.3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -202,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,10 +555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +590,12 @@
       <c r="E4" t="e">
         <f>'[5]O''Brien''s'!A1</f>
         <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>[6]areaBelow50_ordered!$Z$28</f>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
